--- a/data/test/relevancy-test-944601.xlsx
+++ b/data/test/relevancy-test-944601.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,37 +448,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>And I guess it is a fine line between market uncertainty and price gouging in many of our minds because people price gouge because consumers are uncertain and they know gas costs are rising correct</t>
+          <t>Does anybody believe that the coal industry should have the right to put unlimited amounts of carbon dioxide at zero cost into the atmosphere</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>If thats the case for a State like Illinois if 40 percent of the power that we generate is nuclear what would that do to our national energy policy and the pocketbook issues what would it do to the price for the individual consumers</t>
+          <t>Our testing of mercury emissions indicates removal rates well in excess of the 90 percent required by the Mercury and Air Toxic Standard Rule</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mr Blake we have noted that since the NES was adopted the National Energy Strategy that opened the wholesale markets in electricity the wholesale market has increased by 400 percent and prices have steadily declined in the wholesale market during that period of time</t>
+          <t>Second I do think that green coal and carbon sequestration is the most important single breakthrough we could make because the objective fact is China is adding one coalburning plant a week</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>We have Mr Adam Sieminski Chief Energy Economist Deutsche Bank</t>
+          <t>At what time did your company first become aware that the system was experiencing unscheduled unplanned or uncontrollable power flows or other abnormal conditions and what steps did you take to address the problem</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,37 +488,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>If we develop our energy resources while vigorously protecting the health and safety of all Americans our Nation can realize enormous economic and energy security benefits</t>
+          <t>Just as an illustration to make it as clear as I can with a chart that looks fairly complex I will try to simplify it at just how dramatic the changes are that I refer to in thein what is happening today in clean energy</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>I know of nobody that could not get natural gas if they were willing to pay the price unless it was a pipeline constraint</t>
+          <t>Power companies planned ahead to upgrade or retire power plants and build new resources</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Consumers determine energy consumption every day through their purchasing decisions and the use of the products they buy</t>
+          <t>When they heard about President Obamas proposal to put a tax of 10 on a barrel of American crude oil they all said what the heck what is he thinking</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>For example low NOINFXINF burner technology developed through the program is now on 75 percent of US coal fired power plants</t>
+          <t>Exporting oil just doesnt make any sense</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,17 +528,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Coalfired electricity is only cheap if one ignores the health and economic costs</t>
+          <t>We have also engaged the Department of Interior the Department of Energy the National Laboratories and the Department of Defense in discussions related to security</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Time of use metering is a similar application of technology which will better help electric customers understand when they use electricity the price consequences thereof and ways to save money</t>
+          <t>This outbreak prompted Congress to act with the Energy and Commerce Committee taking the lead in the House through a series of investigations and hearings on the issue</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,17 +548,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Soand the other thing I would add is that they are not clean or completely fossilfuel free the way that renewables are</t>
+          <t>And in order to accommodate the greatest diversity of witnesses as well as use the time we have in the most efficient way considering both of the activities on the House floor and HouseSenate conferences on the energy and the highway bills we are going to bifurcate this hearing</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fueling Infrastructure The third challenge we have to overcome is developing business models for the deployment of a hydrogen infrastructure and piloting technologies to support it</t>
+          <t>Senator Dorgan you testified that after reviewing several recent studies on the impacts of LNG exports the Bipartisan Policy Center and Energy Board concluded that domestic gas prices are more likely to drive export levels than exports are likely to determine domestic prices</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,17 +568,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>These plants have proven to be highly reliable in all weather conditions costeffective in operation and act as crucial anchors to the national electric grid</t>
+          <t>Although more than half the increase in natural gas consumption between 2000 to 2020 is expected in the East the Westincluding Canadian imports and most of the Gulf Offshoreis expected to provide approximately 80 percent of the incremental lower 48 natural gas supply in the reference case</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>The good news is that almost everything you can imagine as an energy source is also something that can be made to work to produce hydrogen</t>
+          <t>It is in the national interest and the interest for our economy to get this going and Texans we are understanding of energy issues and the necessity of getting energy to market</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,37 +588,37 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fortunately I understand that FERC operations have returned to near normal having cleared much of that backlog allowing the commission to turn its attention towards a host of issues ranging from controversial changes to the RTO capacity markets to how new energy infrastructure projects should be evaluated under FERCs certificate policy</t>
+          <t>It is time for Congress to provide an updated National Energy policy</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mr Reicher if we do nothing other than roll back EPAs modest steps to reduce carbon emissions are we at risk at losing the clean energy jobs race with China</t>
+          <t>They were the recipient of a promise by the Federal Government and the Department of Energy</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Considering the nations maximized operational capacity increased reliance on imported oil and strained refining infrastructure any complicating factors in the gasoline distribution chain refining outages or multiple smallmarket fuel formulations can easily impact overall supply and consumer costs</t>
+          <t>So it is not just the populationit is not just the people who have been on the oil rigs</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>No one has the authority to look at the big picture of how hydro fits into our national energy policy</t>
+          <t>We in California introduced building standards and appliance standards and conservation programs for the utilities to beat the standards and we have kept electricity use constant per person for 30 years now even though everything is bigger and there are more loads and Gross Domestic Product per disposable income went up 80 percent we managed to keep electricity use constant with better refrigerators better air conditioners better buildings</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>But before March 1979 was the last instance where the NRC received an application for a new nuclear power generation plant</t>
+          <t>These are carbon dioxide pipes</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>There is a great deal of uncertainty about the size and availability of crude oil resources particularly conventional resources the adequacy of investment capital and geopolitical trends</t>
+          <t>So now that youre on the job I wanted to ask you specifically do you believe that greenhouse gas emissions endanger the public health</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,17 +648,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>So yes I mean I would agree as my testimony alluded to that projects like that in California and other States around the country are being driven in large part by State renewable electricity standards which have been beneficial in not only deploying the technologies but driving down the cost</t>
+          <t>The partners are Southern Company subsidiary Georgia Power the Municipal Electric Authority of Georgia MEAG Power the Georgia Transmission Corporationa cooperative utilityand Dalton utilitiesa municipal system</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Canada is already the largest supplier of energy to the United States meeting 12 percent of current US petroleum consumption needs and 18 percent of US petroleum imports</t>
+          <t>There are six principles which we believe are essential to this effort The Department and the National Nuclear Security Administration must ensure that its contractors establish robust effective and reliable business systems promote contractor governance models that adequately protect the Departments interests foster a culture where contractors fully understand and honor the very special responsibility associated with managing taxpayerfunded Federal facilities promote an environment where both Federal and contractor employee concerns can be raised and addressed without fear of retaliation develop quantifiable outcomeoriented metrics and maintain a system to track critical aspects of contractor performance and reward contractors commensurate with their accomplishments</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>So it is not just the populationit is not just the people who have been on the oil rigs</t>
+          <t>Congressman Latta I have also negotiated retransmission consent contracts and I would tell you that in the case of Suddenlink they were almost always successfully negotiated because we simply didnt have any power at the table to do anything other than accept the deal we were given</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Most of the gas we will find onshore in the future will be unconventional gas that is highercost and lowermargin</t>
+          <t>Secondly the other consistent thing in that report as I stated earlier is the natural gas impact is having on the marketplace in general in terms of retiring old inefficient plants</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,27 +688,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>The depressing part of my introduction is I realize I have been at this for 3 decades as part of the House of Representatives staff during the oil embargoes and after I was with Mr Garvin in 1983 and 1984 in the Energy Department running conservation and renewable programs and have been a consumer advocate for the last 10 years</t>
+          <t>The first provided an overview of the future of fuels and vehicles</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Every piece of equipment that a retailer uses to dispense fuel has to be listed as compatible with that fuel and up until about 10 years ago there were no dispensers listed for above E10</t>
+          <t>My own research has focused on understanding and quantifying the effects of reductions in mercury emissions</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>I am just concerned that EPA has taken the environmental cop off the beat and will go on polluting without fear of repercussions</t>
+          <t>The Department of Energy and the National Nuclear Security Administration are fully committed to the homeland security mission and the successful establishment of the Department of Homeland Security</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>We believe to create a truly competitive vibrant energy industry these constraints should be removed</t>
+          <t>And as a municipal utility CPS Energy belongs to a class of utilities termed public power utilities</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>That would be a market where large users of electricity can bid in to the market discontinuing using a certain amount of their load and get paid for it and make an economic decision as to whether they want to do that or not</t>
+          <t>The prepared statement of Stephen E Ewing follows Stephen E Ewing President Chief Operating Officer DTE Energy Gas on Behalf of the American Gas Association Thank you for the opportunity to testify before this Committee on behalf of the American Gas Association and the 56 million consumers served by its members</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>We took a plant in Michigan called the Michigan Truck Plant which produced Expeditions and Navigators large SUVs and converted it into making small cars and now that plant makes Focus CMax hybrid CMax plugin hybrid Focus battery electric vehicle all in the same plant down the same line only place in the world where we do where that is done</t>
+          <t>Approximately 10 years ago Beaver County started to see the effects of the technological advancements that made developing the Marcellus Shale possible</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,17 +748,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>These are good solid domestic jobs that get created with energy efficiency</t>
+          <t>My companys view and my personal perspective is that all fuel sources have something to offer and a diverse portfolio is key to a reliable electric grid</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Are these coal refusetoenergy facilities typically located in a smaller community or a larger community</t>
+          <t>Power supplies had been disabled</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>coal consumption Coal consumption is dominated by electric utilities which consume nearly 90 of all coal production</t>
+          <t>The C2P2 encourages generators and users of coal combustion products to increase the use of coal ash in cement and other construction products</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>So maybe someday we have this hole underground it can be used for longterm nuclear storage</t>
+          <t>Instead as the threat from climate change becomes more and more dire and the scientific consensus of the threat becomes even clearer we are having another hearing focused on the alleged war on coal</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>My companys view and my personal perspective is that all fuel sources have something to offer and a diverse portfolio is key to a reliable electric grid</t>
+          <t>But domestically it has both led to a tremendous renewal in manufacturing170 billion capital invested in just in the kind of the chemical arena and by the way also reducing carbon emissions</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,47 +798,47 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Up to 4000 megawatts of capacity nationwide would be eligible</t>
+          <t>Lawmakers must examine the welltowheels cost and impact of EVs from power plant energy distribution to battery disposal</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Has the RFS reduced the need for foreign oil</t>
+          <t>And with Canadas vast proven oil reserves the prospect of North American energy independence is no longer political rhetoric but a promising reality</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Senator Dorgan you testified that after reviewing several recent studies on the impacts of LNG exports the Bipartisan Policy Center and Energy Board concluded that domestic gas prices are more likely to drive export levels than exports are likely to determine domestic prices</t>
+          <t>These are good solid domestic jobs that get created with energy efficiency</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>If you were to attempt to build a scrubber and I do know what scrubbers cost because I have put them on coalfired power plants and I have put them on big plants and I know that they dont go on little plants because the plants I used to take care of in many cases are now retired because they cant afford to put it and they are considerably larger than these plants</t>
+          <t>You guys are the guys who can make this happen because of your connection with mostlyyou have some friends over on my side but you have a lot of friends on the Democrat side and they are in charge and so I would plead with you and the other folks who are looking for expansion of energy opportunities the operating engineers the electricians that they hold out for a good bill that they are not going to lose their jobs</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>The other thing we can do is to make sure that any difficulties associated with splashblended ethanol are addressed by allowing us to incorporate ethanol into other ethers for example ETBE</t>
+          <t>The consensus decision making rule Prior witnesses at these hearings have suggested that the consensus requirement of the 661 Committee made it difficult to establish effective oversight of the Oil for Food program</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Through research and demonstration of hydrogen generation and storage technology we will be able to gain the necessary safety knowledge which will lead to data driven codes and standards that do not currently exist</t>
+          <t>Fortunately I understand that FERC operations have returned to near normal having cleared much of that backlog allowing the commission to turn its attention towards a host of issues ranging from controversial changes to the RTO capacity markets to how new energy infrastructure projects should be evaluated under FERCs certificate policy</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,37 +858,37 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>While that is a viable use for injected carbon we also need to store large quantities of it underground indefinitely and on that front further research development and demonstration is clearly called for</t>
+          <t>By definition costeffective conservation is less costly than any other energy resource and conservation reduces consumers bills</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>This requires vacation of camera regulations of both new and existing EGUs electric generation units</t>
+          <t>COMMINGLING OF DIVERGENT COMPLIANT FUELS First Congress should adopt a legislative provision to permit the commingling of divergent compliant fuels</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1013 would create more red tape and delay and would severely reduce protections for rivers and fisheries impacted by hydroelectric generation</t>
+          <t>Second with regard to clean coal as you know we dont support subsidies for coal</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>There is an analysis that is going to be released in the coming weeks by the National Commission on Energy Policy</t>
+          <t>She says As a result of shortsighted energy policies poor longterm planning and extensive rolling blackouts in 2020 CAISO petitioned FERC to make changes to its tariff related to transmission priority through California</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Integrity Management Rule for Natural Gas Transmission OPS issued the integrity management rule for natural gas transmission lines on December 12 2003</t>
+          <t>Thousands of different stakeholders participate in the US electricity system and many of these stakeholders have differing and competing desires for how wholesale electricity markets should be administered</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Even using power from traditional coal plants to charge a plug in hybrid is environmentally superior for CO2 and criteria pollutants to driving a regular Toyota Prius</t>
+          <t>We have partnerships throughout the United States and with universities with national labs with all kinds of differentand other companies as well looking at everything from hydrogen to of course batteries and electrification of the vehicles and what is happening with compact natural gas and everything else</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>In fact a new EIA Commission Study concludes that oil refiners would have quote no problem quote meeting a requirement to produce 95 RON gasoline beginning in 2022 and assumes that refiners would meet that standard with E10 gasoline</t>
+          <t>Yes it is in my opinion highly likely that any living thing that is exposed to high enough concentrations obviously if it is oil and dispersant mixtures are very likely to be poisoned</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,27 +928,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>At what time did your company first become aware that the system was experiencing unscheduled unplanned or uncontrollable power flows or other abnormal conditions and what steps did you take to address the problem</t>
+          <t>Soand the other thing I would add is that they are not clean or completely fossilfuel free the way that renewables are</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Thousands of different stakeholders participate in the US electricity system and many of these stakeholders have differing and competing desires for how wholesale electricity markets should be administered</t>
+          <t>Coalfired electricity is only cheap if one ignores the health and economic costs</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>I appear this morning on behalf of the National Association of Convenience Stores NACS and the Society of Independent Gasoline Marketers of America SIGMA</t>
+          <t>Secretary Leavitt has made a personal investment and focus of energy on rebuilding of the Louisiana health care system supported by continuous technical expertise offered by CMS and senior officials throughout HHS</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>We just spent 5281 million to retrofit one coal plant to put scrubbers on</t>
+          <t>The goals are to reduce foreign oil imports and improve air qualitynot subsidize American industry</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Four US States Minnesota Montana Idaho and North Dakota account for 75 percent of all the natural gas brought into the United States via pipeline</t>
+          <t>And are you aware of the significant concerns because I know I have heard a lot about it with the pending regulations and their impact on the affordability of wood wood heating</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,17 +978,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Once a public health emergency has been declared MSEHPA allows authorities the power to seize private property for public use that is reasonable and necessary to respond to the public health emergency</t>
+          <t>They have been in use for years in places such as Texas in order to achieve enhanced oil recovery</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Well we have already issued a New Source Performance Standard that captures the volatile organic compounds in the emissions from unconventional gas when hydrofracking happens</t>
+          <t>Environmental concerns are extremely important because energy production and consumption involve major externalitiescosts that are not easily reflected in market transactions</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,47 +998,47 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Mr Linn and Mr Duplessis obviously with this being the largest oil spill in the history of our country theres lots of media attention</t>
+          <t>The energy markets of Canada Mexico and the US are becoming increasingly interdependent thanks in large part to the free trade status of energy commodities</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>As members of this committee are well aware FERC has been without a quorum since February which has prevented action on crucial energy infrastructure projects</t>
+          <t>Likewise in Puerto Rico Hurricanes Irma and Maria uncovered the intensified issues associated with aging and inefficient energy infrastructure contaminated sites that are rapidly multiplying landfills that are already overflowing and possibly the most contaminated drinking water supply in the United States</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Other FreedomCAR challenges include technical market infrastructure and public policy hurdles before fuel cell vehicles are commercially available and DOEs vision of a petroleum free emission free transportation system is a reality</t>
+          <t>Ultimately advanced concepts such as that of the DOEs Vision 21 program offer the advantages of clean efficient power with simultaneous production of liquid transportation fuels to reduce our dependence on imported petroleum</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>One of every eight people gets their electricity from a rural electric cooperative nationwide</t>
+          <t>Second did the Department of Energy sufficiently monitor the financial status of Solyndra after loan disbursements began particularly as the market forces seemed to be against them</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A key responsibility of this Committee is to develop and ensure implementation of a Strategic Plan for disposition and consolidation of special nuclear material</t>
+          <t>We cannot simply solve this crisis without focusing increasing our energy efficiency</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>The electric mix ofin electricity generation today as I understand it is coal 45 percent nuclear 20 natural gas 23 hydro seven and renewable 36</t>
+          <t>There is clearly a need for a speedier more efficient process for siting approval especially as siting decisions in one state can affect the operation of the electric grid in several other statesas should be apparent from the events of August 14th</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,17 +1058,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>And the Federal Energy Regulatory Commission oversees many elements of the energy markets that this committee is familiar with including natural gas pipelines and electricity markets while the CFTC oversees natural gas and electricity futures</t>
+          <t>A key responsibility of this Committee is to develop and ensure implementation of a Strategic Plan for disposition and consolidation of special nuclear material</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>However while we look forward to advanced nuclear technology development it is long overdue to solve our Nations nuclear waste disposal challenge</t>
+          <t>So can you explain to why you thinkyou know I realize you decrease emissions but I just am not convinced that that particularly will change much the overall lifecycle of carbon emissions with the batterythe development of the batteries and what it costs to do that when you plug it in how the power is generated</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>OK well it will also have to replace fossil fuel energy generation in addition</t>
+          <t>Is it fair to say that Order 1000 provides a structure for other regions of the country to likewise identify and build transmission infrastructure that is needed to bring new renewable resources online</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,17 +1088,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Second the National Nuclear Security Administrations direct Federal oversight was narrowly focused on specific performance measures called out in the contract rather than on overall effectiveness and the interface between different areas and I will say more about this in a moment</t>
+          <t>CAFE standards have helped increase the average fuel economy of our lightduty vehicle fleet</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>It can also help ensure that our communities are more resilient to the impacts of climate change as you know well in your State from power outages to flooding and storm surges</t>
+          <t>But having more and more acres burn without addressing the underlying causes will only make our air quality and greenhouse gas pollution issues that much worse</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,17 +1108,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>But Cellular South which is our homeowned cellular company and BellSouth which is our biggest provider and also is a partner in Cingular again their people have worked untold hours just like the electric utility people and made huge sacrifices</t>
+          <t>The Syrian representative a member at the time of the 661 Committee with support from other delegations questioned the reliability of the figures we quoted which we had drawn from publicly available oil industry publications</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>The problem is that if we look ahead and we look at the fact that natural gas is still a fossil fuel comes with CO2 emissions a coaltogas switch will just not be enough to meet our climate goals</t>
+          <t>OK well it will also have to replace fossil fuel energy generation in addition</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,27 +1128,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>The energy markets of Canada Mexico and the US are becoming increasingly interdependent thanks in large part to the free trade status of energy commodities</t>
+          <t>Mr Caruso your testimony focuses on the supply side of natural gas</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>This continuing improvement has been the result of more efficient engines emission control technologies and cleaner burning fuel</t>
+          <t>Last year the House included a provision in its energy bill requiring a Federal study into this boutique motor fuel issue</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Each day more exploration and development activity in the Gulf is lost</t>
+          <t>3 would additionally allow substitutions of Transportation Control Measures in a SIP without revisiting the SIP approval process or making a new conformity determination provided that the new measures achieve an equal or greater emissions reduction</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Electricity generated from coal is used in all 50 states</t>
+          <t>And either the oil itself or something in it is whats likely causing this outbreak</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,87 +1168,87 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>It is helpful to have this update on electricity restructuring issues and I am pleased that transmission issues will be covered in a separate hearing because it is one of the most critical components of any restructuring plan</t>
+          <t>Dont you think particularly dealing with climate change and carbon because if a ton of carbon goes up in Houston Texas and a ton of carbon goes up in China it is basically the same on the worldwide impact unlike some of our other pollutants</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Have you analyzed how expected and observed climate changes will affect natural gas price fluctuations</t>
+          <t>US carbon trading is coming</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>We all want safer and more fuel efficient cars</t>
+          <t>So the advantages that you would get from lets say maybe keeping a lid on the Brent price which affects gasoline pricethat advantage still exists and meanwhile the refineries are still operating</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>I have served on the Budget Committee the past few terms as a representative of the Democrats on the Energy and Commerce Committee and we have seen those budgets</t>
+          <t>And Mr Shimkus is from a State that has the most spent nuclear waste in the country</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Estimated potential energy savings expected to result when this program is fully implemented are in the 35 range</t>
+          <t>The money basically comes from private investors in Kyoto party nations like in Europe who choose to get some of their emissions credits through the clean development mechanism by investing in countries like China or India or African countries or developing countries around the world</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NRC currently bills its licensees or applicants about 263 per hour which is a high burden on companies seeking to develop new nuclear technologies</t>
+          <t>Forcing fuel switching from coal to natural gas is a tool of compliance by contrast maximizes the costs of compliance</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>I dont know that we are going to pick and choose the generation sources or the energy sources that is where the American peoplefor other policymakers</t>
+          <t>And we also operate the Nations most active LNG important terminal at Cove Point Maryland</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>So this war on coal must stop</t>
+          <t>The first major power plant was returned to service in just under an hour after that and a few minutes later we reestablished a transmission path to New York City</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>As an example generally the typical electric cooperative in the United States has 7 customers per mile 7</t>
+          <t>As Ohioans discuss this issue across the state we hear one overriding concern maintaining our affordable reliable power is critical to both the pocketbooks of Ohioans and continued economic development within our state</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>The Energy and Commerce Committee should continue to lead the effort to ensure the Federal government meets is moral and fiduciary responsibility to clean up its defense waste and ensure the permanent safe disposal of spent nuclear fuel</t>
+          <t>Thank you for holding todays hearing to provide us with a market participant perspective on our system of electricity regulation</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>And I see no way that energy costs are going down</t>
+          <t>You noted at the outset of your tenure at the EPA that your goal was to refocus EPA on its intended mission return power to the states and create an environment where jobs can grow</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Today we will hear from the Federal Energy Regulatory Commission which is the coordinating agency for these reviews</t>
+          <t>So I am going to read you something from the Orange County Register of March 12 2012 In fact Brazilians are spending so much that flights with Brazils top airline TAM originating in the United States have had to carry more fuel to accommodate the dramatically overweight baggage</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,17 +1288,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>US carbon trading is coming</t>
+          <t>The commission has a stake in the national energy policy and has identified areas where new legislation would be helpful</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>In their wisdom the founders of our Nation gave Congress the constitutional power to protect the Intellectual Property of Authors and Inventors in order to promote the Progress of Science and the useful Arts</t>
+          <t>And we are not alone electric utilities in the Northeast and the Southeast have also spent countless hours and invested millions of dollars in efforts to form their own RTOs</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,27 +1308,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>We encourage Congress to learn from States like New Mexico when implementing programs to reduce greenhouse gas emissions</t>
+          <t>When I looked into the composition of the drilling muds and drilling fluids I hit the same kind of data gaps that Dr Reddy described</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>The Agency views the issue of electronics recycling as one of resource conservation and solid waste management and so do CEA and its members</t>
+          <t>But you continue to hide evaporative emissions by even using tailpipe emissions in my opinion</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>In global warming that means putting a moratorium on building huge new sources of COINF2INF emissions</t>
+          <t>Mr Shimkus asked earlier whether climate legislation would raise gasoline and electricity prices</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,87 +1338,87 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Under the Federal Power Act the Federal Energy Regulatory Commission known as FERC oversees electricity markets and the physical and virtual products traded within them</t>
+          <t>In addition we recently received an early site permit from the Nuclear Regulatory Commission which certifies that our site in Clinton Illinois where we operate one nuclear reactor meets all necessary criteria for construction of a new nuclear unit</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>The method can accept a variety of feedstocks including natural gas coal and biomass</t>
+          <t>Were you involved in any communications with the White House to push the Department of Energy to speed this thing along</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Power companies planned ahead to upgrade or retire power plants and build new resources</t>
+          <t>Have you analyzed how expected and observed climate changes will affect natural gas price fluctuations</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Well let me just ask you this then are you basing determinations on LNG exports in part on those discussions with the G7 nations</t>
+          <t>Whether surface temperatures will increase due to radiativelyactive emissions is not clear</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AGA represents 185 local natural gas distribution companies which deliver natural gas to 50 million customers in the United States</t>
+          <t>Republicans claimed thenjust as they do nowthat the solution was to produce more oil domestically</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>My personal opinion based on what happened about that history as well as what happened with privatized spent fuel storage was that you could have a willing host community</t>
+          <t>S 389 extends the existing credit and creates a second drilling window that also applies to heavy oil</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>The job creators the haulers the steel mills have all lost the ability to create jobs because of a policy that was designed and I will just end on this a policy that was designed to protect us against state oil interests</t>
+          <t>And I guess it is a fine line between market uncertainty and price gouging in many of our minds because people price gouge because consumers are uncertain and they know gas costs are rising correct</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>And three accelerate the deployment of clean energy infrastructure</t>
+          <t>The missiles with the nuclear warheads were not reported missing and remained mounted to the aircraft at both Minot and Barksdale for 36 hours</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>New teams will come with expertise something like auditors with expertise in energy trading something like that and if they wont perform theyll be thrown out</t>
+          <t>But Cellular South which is our homeowned cellular company and BellSouth which is our biggest provider and also is a partner in Cingular again their people have worked untold hours just like the electric utility people and made huge sacrifices</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,20 +1428,1020 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Was there any concern at all except for getting opinions of like you said previous counsel to the Department of Energy or outside counsel that you were making precedent here or breaking precedent</t>
+          <t>that material out to do exactly what Canada is doing to do exactly what needs to happen on the FremontWinema National Forests where you have more than 200000 acres of federal forestland that is exactly that way buginfested lodge pole pine when that material comes out why in the Devil do we say it is not renewable and cant be turned into pucks like this to help reduce carbon from coal</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>They are the ones who bear the brunt of higher energy prices and supply disruptions</t>
+          <t>Congressman if you dont mind I think I will jump into this first and I would ask maybe to submit for the record the most recent comprehensive study conducted by the Department of Energys Argonne National Lab which looked at all of the energy balance studies that have been done over the past 10 and 15 years and concluded that without question ethanol has a positive energy balance</t>
         </is>
       </c>
       <c r="B101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>In that same hearing Ms Angielski we heard testimony that fossil energy will remain a major part of the energy mix in growing nations like India Vietnam Colombia South Africa because the sources are domestic abundant and affordable</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Energy Star is an example of something like that</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>In short we cannot afford to have this kind of failure on our electric system happen again</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Commissioner Rosenworcel again what should the FCC be doing going forward to make sure the cell towers dont go down during power outages</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>You probably should think about doing the same thing with our national model energy code the IECC</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Could we talk for just a minute about the energy policy that is being followed by this administration</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>I joined the Department of Energy back in 1978 and I joined the program in 1985</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>I am pleased that both the Securities and Exchange Commission the SEC and the Federal Energy Regulatory Commission FERC are investigating Enrons activities</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Dynegy owns or controls approximately 14000 megawatts of generating capacity in the United States of which 2750 is in California</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Second EPA is about to begin an emissions trading program for nitrogen oxide in the northeast and midwest which will also bring about significant reductions beginning in 2003</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>VW willfully and knowingly cheated having installed engine software in 480000 diesel vehicles to defeat emissions tests</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Electric Divestiture in California</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>This bill includes vital provisions to support domestic clean energy manufacturing and export promotion</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>As the DOE continues to delay honoring its contracts with the utilities to remove spent nuclear fuel from plant sites both the amount of SNF and HLRW stored and the costs associated with storing it increase</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Reducing emissions of carbon dioxide and other greenhouse gases is the right move to make but we should focus on that goal and not lose perspective</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Well we have already issued a New Source Performance Standard that captures the volatile organic compounds in the emissions from unconventional gas when hydrofracking happens</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>A big driver for renewable energy development has been the willingness of States to forge ahead despite the absence of federal leadership</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Should this final FIP result in closure of the San Juan plant and mine hundreds of jobs will be lost not only in the coal and power industry on the Nation but in the service support industry and public sector as well</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Canada is already the largest supplier of energy to the United States meeting 12 percent of current US petroleum consumption needs and 18 percent of US petroleum imports</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Michael C Burgess Congress established the Corporate Average Fuel Economy program in 1975 to improve vehicle fuel economy reduce oil consumption and secure the Nations energy independence</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>So in a tangible way the natural gas prices do affect our operations because of the energy costs</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>As a consequence of the RFS we are now just 45 percent dependent on foreign oil for our liquid transportation fuels</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>And the Federal Energy Regulatory Commission oversees many elements of the energy markets that this committee is familiar with including natural gas pipelines and electricity markets while the CFTC oversees natural gas and electricity futures</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Because electricity markets are connected by wires different pollution standards promote a survival of the filthiest market where the power plants that are the dirtiest run harder because they can slightly underbid cleaner generators</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>As a person who has actually developed interregional transmission projects I have taken the opportunity to write an article that is part of my prepared testimony that was just published in The Electricity Journal called Triple Jeopardy</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>MERGERSCONVERGENCE MERGERS PUHCA restricts consolidations between electric and gas utilities operating in the same market again the SEC has been lax in enforcing this restriction</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>The Johnson Johnson 7 Minute Wellness for Expecting and New Moms App is a sciencebased wellness resource designed to help new moms manage and expand their energy during pregnancy and after giving birth</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>We must develop a coordinated approach to environmental and energy regulation and we must keep options open for all fuel sources especially coal the dark mineral that offers a light for our energy future</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Emissions markets are established early and can provide accurate price signals to all involved</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Accordingly I request that the Agency work with Congress particularly Chairman Shimkus Mr Welch and me as we try to develop interim and longterm solutions fuel solutions that are good for the environment and good for auto mileage good for the American consumers good for the agricultural and ethanol interest and really good for all impacted stakeholders</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>We recognize that the discussion draft instructs FDA to assess the costs benefits and feasibility of traceability technologies and gives FDA the power to exempt certain foods</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Considering the nations maximized operational capacity increased reliance on imported oil and strained refining infrastructure any complicating factors in the gasoline distribution chain refining outages or multiple smallmarket fuel formulations can easily impact overall supply and consumer costs</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>For example low NOINFXINF burner technology developed through the program is now on 75 percent of US coal fired power plants</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Sometimes we will give them energy sometimes they will give us energy</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Mr Robo you mentioned that you are managing the largest solar bank in the world is that right</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Over the last decade we have emerged as the worlds leading producer of oil and natural gas and at the same time we lead the world in CO2 emission reductions a fact that proves that energy production and environmental protection are not mutually exclusive goals</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Municipal utilities in my Tennessee district saw the cost of natural gas soar to near 10 per million Btus on the spot market over the winter</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>I would want the knowledge and education that allowed me to navigate the system and make my own appropriate decisions for myself and my children and I would want the power to determine my own fate and the power to change the situation</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>It can also help ensure that our communities are more resilient to the impacts of climate change as you know well in your State from power outages to flooding and storm surges</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>What is the retail cost of your constituents for electricity in Washington</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>What I wanted to say was that we looked at this and did some computations in the study that we did at NERA and what we found is that using an oil export ban to try to limit field emissions or greenhouse gas emissions associated with fuel consumption is about the worst possible climate policy you could think of</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Ultimately Congressman if the Department of Homeland Security felt that the Nuclear Regulatory Commission hadnt moved either quickly enough or effectively enough visavis the threat you are talking about one would hope that the new Cabinet Secretary in conjunction with the chairman of the Nuclear Regulatory Commission can resolve that</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Moreover there is no reason to believe that such activities have had or will have any practical impact on the pursuit of nuclear weapons by proliferating states on the comprehensive diplomatic efforts ongoing to address these threats or on the possible modernization of nuclear weapons by China or Russia</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>But I worry that you will labor mightily and give forth with a capandtrade that will produce a carbon price that is too low to affect physical change</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Could you explain why the FTC thinks it is necessary to have the power to determine the possibility of adverse results without first consulting with the appropriate judge and presenting and seeking such latitude as you are asking for</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Contamination from industrial facilities pose a more troubling longterm concern with more than 40 oil spills recently reported in Louisiana by the Coast Guard and thousands of chemical containers spotted bubbling in the regions flood water</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>I want to thank all the witnesses for being here and look forward to hearing your testimony as this committee evaluates the state of our wholesale electricity markets and I yield back</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>And then we have Mr Lou Pugliaresi who is the president of Energy Policy Research Foundation</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>The Xcel and Mirant traders discussed schemes to schedule nonexistent power use and to take advantage of congestion payments on Californias overburdened electric grid</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>In addition TIGR has also sequenced a wide range of important environmental microbessome of which live in extreme environments but may be critically important to the health of the planetand that carry out a variety of interesting metabolic reactions including degradation of cellulose and other organic matter precipitation of heavy metals such as uranium from solution and production of methane and hydrogen as potential new sources of fuel</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>And you know if we look at emissions they really have to be looked at on a global scale</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>The Agency views the issue of electronics recycling as one of resource conservation and solid waste management and so do CEA and its members</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>We have a very favorable climate for construction approval siting of new power plants new generating facilities</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Everyone in Washington is interested in renewables</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>In summary we believe tomorrows automobiles must be flexible enough to accommodate many different energy sources</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>So for instance one of my companies Sun Drop Fuels has adopted a different model so they went to Chesapeake a natural gas company because they are going to use natural gas as part of the feedstock in their plant</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Could you describe the goals of your partnership and also what you hope to learn through these field tests and can you give us a sense of when you think carbon sequestration technology could be sufficiently reliable for deployment and for something we can actually begin to rely upon as we structure legislation that in fact might require the capture and sequestration of carbon</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>I think its one of the parts of this whole conversation thats a bit disturbing in that to whatever degree the price of fuel is higher because of speculation its a limiting factor on us raising our taxes that we need to raise so that we can invest in infrastructure and offer some longterm solutions for our citizens</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>He joined the Texas Railroad Commission which is a major entity that governs energy and oil and gas and he is elected by his colleagues as Chairman of the Agency in September</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>We know that Chinas use of coal and the world has grown from 20 percent to about 30 percent now and it is expected to get to use 40 percent of the worlds coal in the next 15 years or so we know that Chinas emissions have grown by 80 percent since 1990 and they are expected to grow another 65 percent by the year 2020</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>In our particular area if you think of wind turbines or solar panels or efficient gas turbines those rare Earth minerals are not actually a major component of our decision making in where to locate</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>And I see no way that energy costs are going down</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Mr Chairman and members of the subcommittee the agreement that we are announcing today on multiple appliances seeks to legislate new appliance efficiency standards for several covered products recommends to DOE and EPA that they adopt new strict Energy Star specifications for these products and seeks to extend the manufacturers tax credit for super efficient appliances to more products</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>And so figuring out a mechanism to make sure we can do the work necessary to be able to fully use hydropower is critical</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>What we also do is allow forwhat the legislation does it allow for technology limits 60 percent I think to one technology 90 percent for two and what that is doing there is saying that although wind today is the cheapest form of renewable power generation ultimately because of these cost curves you want to induce more competition and to see oil prices continue to come down</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Number 2 you have got to have six greenhouse gases so the lowhanging fruit that can be accomplished by changes that reduce other greenhouse gases like methane or NOx any of those the hydrofluorocarbons et cetera can help get rid of it</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>To make the United States the best place in the world to manufacture and attract FDI we urge Congress and the administration more broadly to work together to create a national tax climate to promote manufacturing and embrace an alloftheabove approach to energy modernize and invest in infrastructure ensure that the benefits of regulations justify their cost implement commonsense legal reform reduce healthcare costs and ensure robust export opportunities for manufacturers in the United States including through an aggressive trade policy agenda have open markets and provides competitive export financing and works to ensure that our trading partners protect intellectual property and play by the rules</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>And at that time and today state regulators agree that users of electricity from nuclear power plants should pay for the Federal nuclear waste management and disposal program</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>The electric power sector will continue to strive to meet those expectations through a multilayered strategy to invest in smart energy infrastructure continuous enhancement of our industryGovernment partnership and the grit of the amazing men and women who make the energy grid work dayin and dayout</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>It is one of those days as I said there is a hearing going on on the third floor and we have got about three hearings going in the Energy and Commerce Committee</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>You are quoting an unnamed energy publication</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Heating oil provides heat to only about 7 percent of the fuel consumed by residences on a national basis but the demand is not uniformly distributed the Northeast consumes the about 73 percent of all the heating oil used in the country</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>WANO is organized through regional centers and includes every operating nuclear electric plant in the world</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>In addition ethanol cannot be carried in the nations pipeline system and must be segregated from the wholesale distribution system until its addition at the truck rack</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>All of the research that we have done points toward the need for a full portfolio generation options which includes the need for all forms of thermal generation including nuclear and coal</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>But before March 1979 was the last instance where the NRC received an application for a new nuclear power generation plant</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>In this case those factors are the consequences of a strike in Venezuela that crippled that countrys export capability for months weather much colder than normal in parts of the country where energy use is extremely sensitive to temperature and uncertainty over crude oil supply in the immediate future due to the international situation involving Iraq</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Renewable diesel that lowers agricultural emissions is fully compatible with existing diesel assets and has a place at the table too</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>In some places including my own house the power took a couple of weeks to restore</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>In any event we recognize that projections of energy markets are highly uncertain and are subject to many random events that cannot be foreseen</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>While each regional electric system has its own unique characteristics in general coal and nuclear plants have long supplied base load power while natural gasfired units have been used as the predominant source of loadfollowing and peaking capacity</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>State regulators do not care if power plants get built only that the standards are followed</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Back in 2017 the FCC teed up the 24 gigahertz band in particular the appropriate protection limits in terms of the power emissions and the like for devices that would be using these bands for purposes of 5G</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>It is somewhat more complex and if you are familiar with how DOE is organized Mr Stupak the vast majority of work at the Department of Energy including our nuclear weapons work our research laboratories Mr Stupak</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>That is why he established an interagency working group focused on creating economic opportunities for communities impacted by the shift away from fossil fuels</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>This initiative requires relatively modest federal investment in nuclear energy research and development</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>We have Mr Adam Sieminski Chief Energy Economist Deutsche Bank</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Good morning Chairman Upton Ranking Member Rush and all members of the Energy Subcommittee</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>He said in his oil statement and again just now that somehow companyan individual company would have to go out and assess the exposure not only to their use of the chemical but to everybody else on the market</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>So to the extent the administration is supportive of incentives to increase these alternatives whether it be geothermal or solar or wind they can provide an extra cushion and certainly with a hydrosystem and wind projects allow us to store power as you know in the water and allow us to shape the power curve</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>I am a big trash energy guy</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>This of course means that we will have to have an increase in nuclear waste and we need to safely store it</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Are you both familiar with the EPAs efforts and have you been invited at all to participate in their process of establishing a registry and if so could you elaborate on some of the suggestions that you have made to design a registry and recognizing of course that we already are doing emissions registry in the electrical sector</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Was there any concern at all except for getting opinions of like you said previous counsel to the Department of Energy or outside counsel that you were making precedent here or breaking precedent</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>So here is this switch that when it is in one position for an emissions test it made a change in how this was operational so the emissions would be lower</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>I thank you and the Chair of the full committee for your leadership on the American Clean Energy and Security Act</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>PSEG our company our company is already beginning to invest heavily in alternative energy</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Since the drafts release the Environmental Protection Agency has issued a finding that greenhouse gas emissions pose a threat to public health and welfare</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>And I visited Oregon Techs oneofakind geothermal plant in August and saw firsthand how they are taking advantage of great renewable resources in the Klamath Basin</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Is it an equivalent of a 1400megawatt power station that could have been available</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/test/relevancy-test-944601.xlsx
+++ b/data/test/relevancy-test-944601.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
